--- a/ui-testsuite/src/main/resources/TestData/ATR_Invalid_CheckMassUpdate.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/ATR_Invalid_CheckMassUpdate.xlsx
@@ -2142,7 +2142,7 @@
     <t>NO1</t>
   </si>
   <si>
-    <t>,CAM RISK</t>
+    <t>CAM RISK</t>
   </si>
 </sst>
 </file>
@@ -2620,10 +2620,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FF32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EM1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="EI1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BC1" sqref="BC1"/>
-      <selection pane="bottomLeft" activeCell="EW17" sqref="EW17"/>
+      <selection pane="bottomLeft" activeCell="FA2" sqref="FA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4837,7 +4837,7 @@
         <v>0</v>
       </c>
       <c r="DH7" s="8">
-        <v>70822.5</v>
+        <v>-70822.5</v>
       </c>
       <c r="DI7" s="5"/>
       <c r="DJ7" s="5"/>
